--- a/municipal/ENG/Education/General Educational Institution/Adjara A.R/Kobuleti.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Adjara A.R/Kobuleti.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>─</t>
   </si>
   <si>
-    <t>Public and Private General Education Schools in Kobuleti</t>
-  </si>
-  <si>
     <t>(At the beginning of the school year)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   <si>
     <t xml:space="preserve">Source: Ministry of Education and Science of Georgia.
 </t>
+  </si>
+  <si>
+    <t>Public and Private General Education Schools in Kobuleti municipality</t>
   </si>
 </sst>
 </file>
@@ -256,11 +256,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,9 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -559,40 +557,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="13" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
@@ -640,7 +638,7 @@
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8">
         <v>53</v>
@@ -681,7 +679,7 @@
     </row>
     <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9">
         <v>12747</v>
@@ -722,7 +720,7 @@
     </row>
     <row r="6" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
@@ -763,14 +761,14 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -778,8 +776,7 @@
       <c r="E8" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="3">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A2:M2"/>

--- a/municipal/ENG/Education/General Educational Institution/Adjara A.R/Kobuleti.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Adjara A.R/Kobuleti.xlsx
@@ -1,30 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Adjara A.R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\General Educational Institution\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39369C51-0BA3-4A3A-92CA-6EF2D7A8A5D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="2970" yWindow="900" windowWidth="20850" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kobuleti" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+  <si>
+    <t>Public and Private General Education Schools in Kobuleti municipality</t>
+  </si>
+  <si>
+    <t>(At the beginning of the school year)</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
   <si>
     <t>2017/2018</t>
   </si>
@@ -41,122 +64,146 @@
     <t>2021/2022</t>
   </si>
   <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>─</t>
-  </si>
-  <si>
-    <t>(At the beginning of the school year)</t>
-  </si>
-  <si>
-    <t>General education  schools, unit</t>
-  </si>
-  <si>
-    <t>Number of pupils, persons</t>
-  </si>
-  <si>
-    <t>Number of teachers, persons</t>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>General education  schools (unit)</t>
+  </si>
+  <si>
+    <t>Number of pupils (persons)</t>
+  </si>
+  <si>
+    <t>Number of secondary school graduates  (persons)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Of which:   Girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Boy</t>
+  </si>
+  <si>
+    <t>Number of secondary school graduates per 1000 population</t>
+  </si>
+  <si>
+    <t>Number of teachers (persons)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Of which:    Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Men</t>
   </si>
   <si>
     <t>* As at 5 April 2011.</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Ministry of Education and Science of Georgia.
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Ministry of Education and Science of Georgia.
 </t>
-  </si>
-  <si>
-    <t>Public and Private General Education Schools in Kobuleti municipality</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
+      <u/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -186,7 +233,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -194,10 +241,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -205,7 +252,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -214,54 +261,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,256 +593,553 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="13" width="14.42578125" style="2" customWidth="1"/>
-    <col min="14" max="18" width="12" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
+    <col min="2" max="15" width="10.7109375" style="3" customWidth="1"/>
+    <col min="16" max="18" width="12" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" spans="1:18" ht="21" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="N3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8">
+      <c r="O3" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
         <v>53</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>50</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>50</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>50</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <v>50</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>50</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>50</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <v>50</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="9">
         <v>50</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <v>49</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="9">
         <v>49</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="9">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="N4" s="9">
+        <v>49</v>
+      </c>
+      <c r="O4" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="21" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11">
         <v>12747</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>11550</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>11071</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>10811</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="11">
         <v>10966</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="11">
         <v>10982</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <v>11119</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="11">
         <v>11350</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="11">
         <v>11456</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="11">
         <v>11481</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="11">
         <v>11898</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="11">
         <v>12292</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="N5" s="11">
+        <v>12460</v>
+      </c>
+      <c r="O5" s="11">
+        <v>12601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14">
+        <v>783</v>
+      </c>
+      <c r="D6" s="14">
+        <v>843</v>
+      </c>
+      <c r="E6" s="14">
+        <v>621</v>
+      </c>
+      <c r="F6" s="14">
+        <v>774</v>
+      </c>
+      <c r="G6" s="14">
+        <v>800</v>
+      </c>
+      <c r="H6" s="14">
+        <v>177</v>
+      </c>
+      <c r="I6" s="14">
+        <v>863</v>
+      </c>
+      <c r="J6" s="14">
+        <v>782</v>
+      </c>
+      <c r="K6" s="14">
+        <v>764</v>
+      </c>
+      <c r="L6" s="14">
+        <v>740</v>
+      </c>
+      <c r="M6" s="14">
+        <v>980</v>
+      </c>
+      <c r="N6" s="14">
+        <v>925</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="21" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11">
+        <v>395</v>
+      </c>
+      <c r="D7" s="11">
+        <v>456</v>
+      </c>
+      <c r="E7" s="11">
+        <v>319</v>
+      </c>
+      <c r="F7" s="11">
+        <v>404</v>
+      </c>
+      <c r="G7" s="11">
+        <v>388</v>
+      </c>
+      <c r="H7" s="11">
+        <v>73</v>
+      </c>
+      <c r="I7" s="11">
+        <v>428</v>
+      </c>
+      <c r="J7" s="11">
+        <v>385</v>
+      </c>
+      <c r="K7" s="11">
+        <v>365</v>
+      </c>
+      <c r="L7" s="11">
+        <v>335</v>
+      </c>
+      <c r="M7" s="11">
+        <v>451</v>
+      </c>
+      <c r="N7" s="11">
+        <v>461</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="21" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11">
+        <v>388</v>
+      </c>
+      <c r="D8" s="11">
+        <v>387</v>
+      </c>
+      <c r="E8" s="11">
+        <v>302</v>
+      </c>
+      <c r="F8" s="11">
+        <v>370</v>
+      </c>
+      <c r="G8" s="11">
+        <v>412</v>
+      </c>
+      <c r="H8" s="11">
+        <v>98</v>
+      </c>
+      <c r="I8" s="11">
+        <v>435</v>
+      </c>
+      <c r="J8" s="11">
+        <v>397</v>
+      </c>
+      <c r="K8" s="11">
+        <v>399</v>
+      </c>
+      <c r="L8" s="11">
+        <v>405</v>
+      </c>
+      <c r="M8" s="11">
+        <v>529</v>
+      </c>
+      <c r="N8" s="11">
+        <v>464</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="26.25">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="25">
+        <v>10.4290147711078</v>
+      </c>
+      <c r="D9" s="25">
+        <v>11.264556733679401</v>
+      </c>
+      <c r="E9" s="25">
+        <v>8.3146443514644393</v>
+      </c>
+      <c r="F9" s="25">
+        <v>10.362763671417399</v>
+      </c>
+      <c r="G9" s="25">
+        <v>10.7245793954018</v>
+      </c>
+      <c r="H9" s="25">
+        <v>9.8142164781906303</v>
+      </c>
+      <c r="I9" s="25">
+        <v>11.6883820462118</v>
+      </c>
+      <c r="J9" s="25">
+        <v>10.6409759217303</v>
+      </c>
+      <c r="K9" s="25">
+        <v>10.451078964467699</v>
+      </c>
+      <c r="L9" s="25">
+        <v>10.2093608802125</v>
+      </c>
+      <c r="M9" s="25">
+        <v>13.610922070526801</v>
+      </c>
+      <c r="N9" s="25">
+        <v>13.1095033269794</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="21" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="11">
         <v>1359</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I10" s="11">
         <v>1352</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J10" s="11">
         <v>1318</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K10" s="11">
         <v>1245</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L10" s="11">
         <v>1218</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M10" s="11">
         <v>1228</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="N10" s="11">
+        <v>1259</v>
+      </c>
+      <c r="O10" s="11">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="21" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1200</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1188</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1165</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1111</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1094</v>
+      </c>
+      <c r="M11" s="13">
+        <v>1104</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1134</v>
+      </c>
+      <c r="O11" s="11">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="21" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="19">
+        <v>159</v>
+      </c>
+      <c r="I12" s="19">
+        <v>164</v>
+      </c>
+      <c r="J12" s="19">
+        <v>153</v>
+      </c>
+      <c r="K12" s="19">
+        <v>134</v>
+      </c>
+      <c r="L12" s="19">
+        <v>124</v>
+      </c>
+      <c r="M12" s="19">
+        <v>124</v>
+      </c>
+      <c r="N12" s="19">
+        <v>125</v>
+      </c>
+      <c r="O12" s="19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/municipal/ENG/Education/General Educational Institution/Adjara A.R/Kobuleti.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Adjara A.R/Kobuleti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\General Educational Institution\Adjara A.R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39369C51-0BA3-4A3A-92CA-6EF2D7A8A5D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F412DC-CC18-49EC-8FE2-63A4667F13E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="900" windowWidth="20850" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kobuleti" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Public and Private General Education Schools in Kobuleti municipality</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Number of secondary school graduates  (persons)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">    Of which:   Girl</t>
@@ -125,14 +122,23 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>number of graduates of the primary level (persons)</t>
+  </si>
+  <si>
+    <t>number of graduates of the basic level (persons)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -168,23 +174,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -204,6 +193,23 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -261,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -274,55 +280,50 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,516 +629,798 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>53</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>50</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>50</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>50</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>50</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>50</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <v>50</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="11">
         <v>50</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="11">
         <v>50</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="11">
         <v>49</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>49</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="11">
         <v>49</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>49</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>12747</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>11550</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>11071</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>10811</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>10966</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="12">
         <v>10982</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <v>11119</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
         <v>11350</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <v>11456</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>11481</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>11898</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>12292</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>12460</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <v>12601</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:18" ht="26.25">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1089</v>
+      </c>
+      <c r="D6" s="12">
+        <v>907</v>
+      </c>
+      <c r="E6" s="12">
+        <v>911</v>
+      </c>
+      <c r="F6" s="12">
+        <v>828</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1055</v>
+      </c>
+      <c r="H6" s="12">
+        <v>963</v>
+      </c>
+      <c r="I6" s="12">
+        <v>841</v>
+      </c>
+      <c r="J6" s="12">
+        <v>857</v>
+      </c>
+      <c r="K6" s="12">
+        <v>929</v>
+      </c>
+      <c r="L6" s="12">
+        <v>913</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1187</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1149</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="12">
+        <v>503</v>
+      </c>
+      <c r="D7" s="12">
+        <v>420</v>
+      </c>
+      <c r="E7" s="12">
+        <v>417</v>
+      </c>
+      <c r="F7" s="12">
+        <v>379</v>
+      </c>
+      <c r="G7" s="12">
+        <v>470</v>
+      </c>
+      <c r="H7" s="12">
+        <v>466</v>
+      </c>
+      <c r="I7" s="12">
+        <v>389</v>
+      </c>
+      <c r="J7" s="12">
+        <v>382</v>
+      </c>
+      <c r="K7" s="12">
+        <v>430</v>
+      </c>
+      <c r="L7" s="12">
+        <v>403</v>
+      </c>
+      <c r="M7" s="12">
+        <v>579</v>
+      </c>
+      <c r="N7" s="12">
+        <v>546</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12">
+        <v>586</v>
+      </c>
+      <c r="D8" s="12">
+        <v>487</v>
+      </c>
+      <c r="E8" s="12">
+        <v>494</v>
+      </c>
+      <c r="F8" s="12">
+        <v>449</v>
+      </c>
+      <c r="G8" s="12">
+        <v>585</v>
+      </c>
+      <c r="H8" s="12">
+        <v>497</v>
+      </c>
+      <c r="I8" s="12">
+        <v>452</v>
+      </c>
+      <c r="J8" s="12">
+        <v>475</v>
+      </c>
+      <c r="K8" s="12">
+        <v>499</v>
+      </c>
+      <c r="L8" s="12">
+        <v>510</v>
+      </c>
+      <c r="M8" s="12">
+        <v>608</v>
+      </c>
+      <c r="N8" s="12">
+        <v>603</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="26.25">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1147</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1073</v>
+      </c>
+      <c r="E9" s="12">
+        <v>884</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1052</v>
+      </c>
+      <c r="G9" s="12">
+        <v>950</v>
+      </c>
+      <c r="H9" s="12">
+        <v>858</v>
+      </c>
+      <c r="I9" s="12">
+        <v>816</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1026</v>
+      </c>
+      <c r="K9" s="12">
+        <v>944</v>
+      </c>
+      <c r="L9" s="12">
+        <v>838</v>
+      </c>
+      <c r="M9" s="12">
+        <v>867</v>
+      </c>
+      <c r="N9" s="12">
+        <v>940</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12">
+        <v>528</v>
+      </c>
+      <c r="D10" s="12">
+        <v>501</v>
+      </c>
+      <c r="E10" s="12">
+        <v>408</v>
+      </c>
+      <c r="F10" s="12">
+        <v>489</v>
+      </c>
+      <c r="G10" s="12">
+        <v>452</v>
+      </c>
+      <c r="H10" s="12">
+        <v>388</v>
+      </c>
+      <c r="I10" s="12">
+        <v>367</v>
+      </c>
+      <c r="J10" s="12">
+        <v>465</v>
+      </c>
+      <c r="K10" s="12">
+        <v>454</v>
+      </c>
+      <c r="L10" s="12">
+        <v>388</v>
+      </c>
+      <c r="M10" s="12">
+        <v>392</v>
+      </c>
+      <c r="N10" s="12">
+        <v>431</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="12">
+        <v>619</v>
+      </c>
+      <c r="D11" s="12">
+        <v>572</v>
+      </c>
+      <c r="E11" s="12">
+        <v>476</v>
+      </c>
+      <c r="F11" s="12">
+        <v>563</v>
+      </c>
+      <c r="G11" s="12">
+        <v>498</v>
+      </c>
+      <c r="H11" s="12">
+        <v>470</v>
+      </c>
+      <c r="I11" s="12">
+        <v>449</v>
+      </c>
+      <c r="J11" s="12">
+        <v>561</v>
+      </c>
+      <c r="K11" s="12">
+        <v>490</v>
+      </c>
+      <c r="L11" s="12">
+        <v>450</v>
+      </c>
+      <c r="M11" s="12">
+        <v>475</v>
+      </c>
+      <c r="N11" s="12">
+        <v>509</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="26.25">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12">
+        <v>773</v>
+      </c>
+      <c r="D12" s="12">
+        <v>891</v>
+      </c>
+      <c r="E12" s="12">
+        <v>602</v>
+      </c>
+      <c r="F12" s="12">
+        <v>764</v>
+      </c>
+      <c r="G12" s="12">
+        <v>825</v>
+      </c>
+      <c r="H12" s="12">
+        <v>707</v>
+      </c>
+      <c r="I12" s="12">
+        <v>869</v>
+      </c>
+      <c r="J12" s="12">
+        <v>782</v>
+      </c>
+      <c r="K12" s="12">
+        <v>754</v>
+      </c>
+      <c r="L12" s="12">
+        <v>740</v>
+      </c>
+      <c r="M12" s="12">
+        <v>980</v>
+      </c>
+      <c r="N12" s="12">
+        <v>925</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14">
-        <v>783</v>
-      </c>
-      <c r="D6" s="14">
-        <v>843</v>
-      </c>
-      <c r="E6" s="14">
-        <v>621</v>
-      </c>
-      <c r="F6" s="14">
-        <v>774</v>
-      </c>
-      <c r="G6" s="14">
-        <v>800</v>
-      </c>
-      <c r="H6" s="14">
-        <v>177</v>
-      </c>
-      <c r="I6" s="14">
-        <v>863</v>
-      </c>
-      <c r="J6" s="14">
-        <v>782</v>
-      </c>
-      <c r="K6" s="14">
-        <v>764</v>
-      </c>
-      <c r="L6" s="14">
-        <v>740</v>
-      </c>
-      <c r="M6" s="14">
-        <v>980</v>
-      </c>
-      <c r="N6" s="14">
-        <v>925</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12">
+        <v>402</v>
+      </c>
+      <c r="D13" s="12">
+        <v>474</v>
+      </c>
+      <c r="E13" s="12">
+        <v>310</v>
+      </c>
+      <c r="F13" s="12">
+        <v>365</v>
+      </c>
+      <c r="G13" s="12">
+        <v>421</v>
+      </c>
+      <c r="H13" s="12">
+        <v>346</v>
+      </c>
+      <c r="I13" s="12">
+        <v>431</v>
+      </c>
+      <c r="J13" s="12">
+        <v>385</v>
+      </c>
+      <c r="K13" s="12">
+        <v>361</v>
+      </c>
+      <c r="L13" s="12">
+        <v>335</v>
+      </c>
+      <c r="M13" s="12">
+        <v>451</v>
+      </c>
+      <c r="N13" s="12">
+        <v>461</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11">
-        <v>395</v>
-      </c>
-      <c r="D7" s="11">
-        <v>456</v>
-      </c>
-      <c r="E7" s="11">
-        <v>319</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12">
+        <v>388</v>
+      </c>
+      <c r="D14" s="12">
+        <v>417</v>
+      </c>
+      <c r="E14" s="12">
+        <v>292</v>
+      </c>
+      <c r="F14" s="12">
+        <v>399</v>
+      </c>
+      <c r="G14" s="12">
         <v>404</v>
       </c>
-      <c r="G7" s="11">
-        <v>388</v>
-      </c>
-      <c r="H7" s="11">
-        <v>73</v>
-      </c>
-      <c r="I7" s="11">
-        <v>428</v>
-      </c>
-      <c r="J7" s="11">
-        <v>385</v>
-      </c>
-      <c r="K7" s="11">
-        <v>365</v>
-      </c>
-      <c r="L7" s="11">
-        <v>335</v>
-      </c>
-      <c r="M7" s="11">
-        <v>451</v>
-      </c>
-      <c r="N7" s="11">
-        <v>461</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="H14" s="12">
+        <v>361</v>
+      </c>
+      <c r="I14" s="12">
+        <v>438</v>
+      </c>
+      <c r="J14" s="12">
+        <v>397</v>
+      </c>
+      <c r="K14" s="12">
+        <v>393</v>
+      </c>
+      <c r="L14" s="12">
+        <v>405</v>
+      </c>
+      <c r="M14" s="12">
+        <v>529</v>
+      </c>
+      <c r="N14" s="12">
+        <v>464</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="26.25">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11">
-        <v>388</v>
-      </c>
-      <c r="D8" s="11">
-        <v>387</v>
-      </c>
-      <c r="E8" s="11">
-        <v>302</v>
-      </c>
-      <c r="F8" s="11">
-        <v>370</v>
-      </c>
-      <c r="G8" s="11">
-        <v>412</v>
-      </c>
-      <c r="H8" s="11">
-        <v>98</v>
-      </c>
-      <c r="I8" s="11">
-        <v>435</v>
-      </c>
-      <c r="J8" s="11">
-        <v>397</v>
-      </c>
-      <c r="K8" s="11">
-        <v>399</v>
-      </c>
-      <c r="L8" s="11">
-        <v>405</v>
-      </c>
-      <c r="M8" s="11">
-        <v>529</v>
-      </c>
-      <c r="N8" s="11">
-        <v>464</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="26.25">
-      <c r="A9" s="16" t="s">
+      <c r="B15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="22">
+        <v>10.329184288415412</v>
+      </c>
+      <c r="D15" s="22">
+        <v>11.929707112970711</v>
+      </c>
+      <c r="E15" s="22">
+        <v>8.0599272999912976</v>
+      </c>
+      <c r="F15" s="22">
+        <v>10.241973322608754</v>
+      </c>
+      <c r="G15" s="22">
+        <v>11.106623586429725</v>
+      </c>
+      <c r="H15" s="22">
+        <v>9.5755343066879757</v>
+      </c>
+      <c r="I15" s="22">
+        <v>11.824818511488035</v>
+      </c>
+      <c r="J15" s="22">
+        <v>10.697308573578194</v>
+      </c>
+      <c r="K15" s="22">
+        <v>10.402510950919186</v>
+      </c>
+      <c r="L15" s="22">
+        <v>10.277635032846765</v>
+      </c>
+      <c r="M15" s="22">
+        <v>13.746668536961705</v>
+      </c>
+      <c r="N15" s="22">
+        <v>13.109503326979357</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="25">
-        <v>10.4290147711078</v>
-      </c>
-      <c r="D9" s="25">
-        <v>11.264556733679401</v>
-      </c>
-      <c r="E9" s="25">
-        <v>8.3146443514644393</v>
-      </c>
-      <c r="F9" s="25">
-        <v>10.362763671417399</v>
-      </c>
-      <c r="G9" s="25">
-        <v>10.7245793954018</v>
-      </c>
-      <c r="H9" s="25">
-        <v>9.8142164781906303</v>
-      </c>
-      <c r="I9" s="25">
-        <v>11.6883820462118</v>
-      </c>
-      <c r="J9" s="25">
-        <v>10.6409759217303</v>
-      </c>
-      <c r="K9" s="25">
-        <v>10.451078964467699</v>
-      </c>
-      <c r="L9" s="25">
-        <v>10.2093608802125</v>
-      </c>
-      <c r="M9" s="25">
-        <v>13.610922070526801</v>
-      </c>
-      <c r="N9" s="25">
-        <v>13.1095033269794</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="B16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1359</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1352</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1318</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1245</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1218</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1228</v>
+      </c>
+      <c r="N16" s="12">
+        <v>1259</v>
+      </c>
+      <c r="O16" s="12">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1359</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1352</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1318</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1245</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1218</v>
-      </c>
-      <c r="M10" s="11">
-        <v>1228</v>
-      </c>
-      <c r="N10" s="11">
-        <v>1259</v>
-      </c>
-      <c r="O10" s="11">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1200</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1188</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1165</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1111</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1094</v>
+      </c>
+      <c r="M17" s="13">
+        <v>1104</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1134</v>
+      </c>
+      <c r="O17" s="12">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="13">
-        <v>1200</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1188</v>
-      </c>
-      <c r="J11" s="13">
-        <v>1165</v>
-      </c>
-      <c r="K11" s="13">
-        <v>1111</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1094</v>
-      </c>
-      <c r="M11" s="13">
-        <v>1104</v>
-      </c>
-      <c r="N11" s="11">
-        <v>1134</v>
-      </c>
-      <c r="O11" s="11">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="14">
+        <v>159</v>
+      </c>
+      <c r="I18" s="14">
+        <v>164</v>
+      </c>
+      <c r="J18" s="14">
+        <v>153</v>
+      </c>
+      <c r="K18" s="14">
+        <v>134</v>
+      </c>
+      <c r="L18" s="14">
+        <v>124</v>
+      </c>
+      <c r="M18" s="14">
+        <v>124</v>
+      </c>
+      <c r="N18" s="14">
+        <v>125</v>
+      </c>
+      <c r="O18" s="14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="19">
-        <v>159</v>
-      </c>
-      <c r="I12" s="19">
-        <v>164</v>
-      </c>
-      <c r="J12" s="19">
-        <v>153</v>
-      </c>
-      <c r="K12" s="19">
-        <v>134</v>
-      </c>
-      <c r="L12" s="19">
-        <v>124</v>
-      </c>
-      <c r="M12" s="19">
-        <v>124</v>
-      </c>
-      <c r="N12" s="19">
-        <v>125</v>
-      </c>
-      <c r="O12" s="19">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="23" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="A20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/municipal/ENG/Education/General Educational Institution/Adjara A.R/Kobuleti.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Adjara A.R/Kobuleti.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F412DC-CC18-49EC-8FE2-63A4667F13E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE651999-A127-41D2-ABE4-2A3AF399849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kobuleti" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Public and Private General Education Schools in Kobuleti municipality</t>
   </si>
@@ -129,7 +129,24 @@
     <t>number of graduates of the basic level (persons)</t>
   </si>
   <si>
-    <t>-</t>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
+    </r>
+  </si>
+  <si>
+    <t>2023/2025</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -140,7 +157,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +228,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -267,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -311,6 +342,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -320,10 +352,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,15 +629,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
-    <col min="2" max="15" width="10.7109375" style="3" customWidth="1"/>
-    <col min="16" max="18" width="12" style="3" customWidth="1"/>
+    <col min="2" max="16" width="10.7109375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="12" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -629,21 +659,21 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -694,6 +724,9 @@
       <c r="O3" s="17" t="s">
         <v>15</v>
       </c>
+      <c r="P3" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -741,6 +774,9 @@
       <c r="O4" s="11">
         <v>49</v>
       </c>
+      <c r="P4" s="11">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -788,13 +824,16 @@
       <c r="O5" s="12">
         <v>12601</v>
       </c>
+      <c r="P5" s="12">
+        <v>12742</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="26.25">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12">
         <v>1089</v>
@@ -832,8 +871,11 @@
       <c r="N6" s="12">
         <v>1149</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>29</v>
+      <c r="O6" s="12">
+        <v>1116</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -841,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12">
         <v>503</v>
@@ -879,8 +921,11 @@
       <c r="N7" s="12">
         <v>546</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>29</v>
+      <c r="O7" s="12">
+        <v>516</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -888,7 +933,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="12">
         <v>586</v>
@@ -926,8 +971,11 @@
       <c r="N8" s="12">
         <v>603</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>29</v>
+      <c r="O8" s="12">
+        <v>600</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="26.25">
@@ -935,7 +983,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="12">
         <v>1147</v>
@@ -973,8 +1021,11 @@
       <c r="N9" s="12">
         <v>940</v>
       </c>
-      <c r="O9" s="13" t="s">
-        <v>29</v>
+      <c r="O9" s="12">
+        <v>903</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -982,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="12">
         <v>528</v>
@@ -1020,8 +1071,11 @@
       <c r="N10" s="12">
         <v>431</v>
       </c>
-      <c r="O10" s="13" t="s">
-        <v>29</v>
+      <c r="O10" s="12">
+        <v>404</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1029,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="12">
         <v>619</v>
@@ -1067,8 +1121,11 @@
       <c r="N11" s="12">
         <v>509</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>29</v>
+      <c r="O11" s="12">
+        <v>499</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="26.25">
@@ -1076,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="12">
         <v>773</v>
@@ -1114,8 +1171,11 @@
       <c r="N12" s="12">
         <v>925</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>29</v>
+      <c r="O12" s="12">
+        <v>831</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="21" customHeight="1">
@@ -1123,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12">
         <v>402</v>
@@ -1161,8 +1221,11 @@
       <c r="N13" s="12">
         <v>461</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>29</v>
+      <c r="O13" s="12">
+        <v>392</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1">
@@ -1170,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="12">
         <v>388</v>
@@ -1208,8 +1271,11 @@
       <c r="N14" s="12">
         <v>464</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>29</v>
+      <c r="O14" s="12">
+        <v>439</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="26.25">
@@ -1217,69 +1283,72 @@
         <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="22">
+        <v>31</v>
+      </c>
+      <c r="C15" s="18">
         <v>10.329184288415412</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="18">
         <v>11.929707112970711</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>8.0599272999912976</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="18">
         <v>10.241973322608754</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="18">
         <v>11.106623586429725</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="18">
         <v>9.5755343066879757</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="18">
         <v>11.824818511488035</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="18">
         <v>10.697308573578194</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="18">
         <v>10.402510950919186</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="18">
         <v>10.277635032846765</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="18">
         <v>13.746668536961705</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="18">
         <v>13.109503326979357</v>
       </c>
-      <c r="O15" s="13" t="s">
-        <v>29</v>
+      <c r="O15" s="23">
+        <v>13.359812240476622</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>29</v>
+      <c r="B16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="12">
         <v>1359</v>
@@ -1305,28 +1374,31 @@
       <c r="O16" s="12">
         <v>1278</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="P16" s="12">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="21" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>29</v>
+      <c r="B17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H17" s="13">
         <v>1200</v>
@@ -1352,28 +1424,31 @@
       <c r="O17" s="12">
         <v>1151</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="P17" s="12">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18" s="14">
         <v>159</v>
@@ -1399,22 +1474,30 @@
       <c r="O18" s="14">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="19" t="s">
+      <c r="P18" s="14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
